--- a/Cmf.Custom.IoT/BrukerInsightCAP/MasterData/BrukerInsightCAPController.xlsx
+++ b/Cmf.Custom.IoT/BrukerInsightCAP/MasterData/BrukerInsightCAPController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gits\AMSOSRAM\Cmf.Custom.IoT\BrukerInsightCAP\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B95164-1FBE-45E3-9CF6-1E4392F20CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A77E497-F2F7-420B-822A-560AAA2DC4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="17" activeTab="19" xr2:uid="{35E92261-B0D1-4FF2-8384-23465BA1F705}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" firstSheet="17" activeTab="19" xr2:uid="{35E92261-B0D1-4FF2-8384-23465BA1F705}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5046" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5056" uniqueCount="1438">
   <si>
     <t>Tab Name</t>
   </si>
@@ -4434,6 +4434,18 @@
   </si>
   <si>
     <t>BrukerInsightCAP\Setup_RFIDReader.json</t>
+  </si>
+  <si>
+    <t>EPT_STATE</t>
+  </si>
+  <si>
+    <t>* EPTState The current EPT state of this equipment or EPT module.  This parameter merges the EPTTracker E116 EPTState attribute and the EPTState DV (since EDA identifies instances with the event sourceID)</t>
+  </si>
+  <si>
+    <t>EquipmentEPTStateChangeEvent</t>
+  </si>
+  <si>
+    <t>* Equipment Performance State Model for Equipment  </t>
   </si>
 </sst>
 </file>
@@ -4516,7 +4528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4530,20 +4542,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{709DD960-70D2-4AD4-BA1B-077C7D4ADC7F}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4581,44 +4586,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6454,8 +6421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C342" sqref="C342:C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16180,8 +16147,8 @@
       <c r="H331" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I331" s="2" t="s">
-        <v>667</v>
+      <c r="I331" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
@@ -16211,8 +16178,8 @@
       <c r="H332" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I332" s="2" t="s">
-        <v>667</v>
+      <c r="I332" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
@@ -16242,8 +16209,8 @@
       <c r="H333" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="I333" s="2" t="s">
-        <v>667</v>
+      <c r="I333" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
@@ -16273,8 +16240,8 @@
       <c r="H334" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="I334" s="2" t="s">
-        <v>667</v>
+      <c r="I334" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
@@ -16304,8 +16271,8 @@
       <c r="H335" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="I335" s="2" t="s">
-        <v>667</v>
+      <c r="I335" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
@@ -16335,8 +16302,8 @@
       <c r="H336" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="I336" s="2" t="s">
-        <v>667</v>
+      <c r="I336" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
@@ -16366,22 +16333,40 @@
       <c r="H337" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="I337" s="2" t="s">
-        <v>667</v>
+      <c r="I337" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
-      <c r="F338" s="2"/>
-      <c r="G338" s="2"/>
-      <c r="H338" s="2"/>
-      <c r="I338" s="2"/>
+      <c r="A338" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D338" s="2">
+        <v>116103</v>
+      </c>
+      <c r="E338" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F338" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
     </row>
@@ -16521,14 +16506,14 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B338:B1048576 B1:B330">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  <conditionalFormatting sqref="B338:B1048576 B1:B330 C338">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D330 D338:D1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -16537,11 +16522,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16574,72 +16558,73 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="C2" t="s">
-        <v>557</v>
+      <c r="B2" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="D2" s="1">
-        <v>30200</v>
+        <v>15300</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D3" s="1">
-        <v>30201</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D3">
+        <v>15301</v>
+      </c>
+      <c r="E3" t="s">
         <v>426</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>560</v>
+      <c r="B4" s="5" t="s">
+        <v>583</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="D4" s="1">
-        <v>30202</v>
+        <v>15314</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="D5" s="1">
-        <v>30203</v>
+        <v>15331</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>426</v>
@@ -16647,37 +16632,35 @@
       <c r="F5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>565</v>
+        <v>734</v>
+      </c>
+      <c r="C6" t="s">
+        <v>557</v>
       </c>
       <c r="D6" s="1">
-        <v>30210</v>
+        <v>30200</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>566</v>
+      <c r="B7" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D7" s="1">
-        <v>30211</v>
+        <v>30201</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>426</v>
@@ -16685,37 +16668,36 @@
       <c r="F7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>723</v>
+      <c r="B8" s="13" t="s">
+        <v>560</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D8" s="1">
-        <v>30501</v>
+        <v>30202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>724</v>
+        <v>562</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D9" s="1">
-        <v>30502</v>
+        <v>30203</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>426</v>
@@ -16723,18 +16705,18 @@
       <c r="F9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>725</v>
+        <v>564</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D10" s="1">
-        <v>30503</v>
+        <v>30210</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>426</v>
@@ -16742,18 +16724,18 @@
       <c r="F10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>728</v>
+      <c r="B11" s="13" t="s">
+        <v>566</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D11" s="1">
-        <v>30513</v>
+        <v>30211</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>426</v>
@@ -16761,18 +16743,18 @@
       <c r="F11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>729</v>
+      <c r="B12" s="5" t="s">
+        <v>723</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D12" s="1">
-        <v>30514</v>
+        <v>30501</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>426</v>
@@ -16780,134 +16762,130 @@
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>573</v>
+      <c r="B13" s="13" t="s">
+        <v>724</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D13" s="1">
-        <v>30540</v>
+        <v>30502</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>727</v>
+      <c r="B14" s="5" t="s">
+        <v>725</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D14" s="1">
-        <v>30560</v>
+        <v>30503</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>726</v>
+      <c r="B15" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D15" s="1">
-        <v>30565</v>
+        <v>30513</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>849</v>
+        <v>729</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>837</v>
+        <v>572</v>
       </c>
       <c r="D16" s="1">
-        <v>40501</v>
+        <v>30514</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>850</v>
+      <c r="B17" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>838</v>
+        <v>574</v>
       </c>
       <c r="D17" s="1">
-        <v>40502</v>
+        <v>30540</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>851</v>
+        <v>727</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>839</v>
+        <v>575</v>
       </c>
       <c r="D18" s="1">
-        <v>40503</v>
+        <v>30560</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>852</v>
+        <v>726</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="D19" s="1">
-        <v>40504</v>
+        <v>30565</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>426</v>
@@ -16916,18 +16894,18 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D20" s="1">
-        <v>40505</v>
+        <v>40501</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>426</v>
@@ -16936,18 +16914,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>589</v>
+        <v>838</v>
       </c>
       <c r="D21" s="1">
-        <v>40506</v>
+        <v>40502</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>426</v>
@@ -16956,18 +16934,18 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D22" s="1">
-        <v>40507</v>
+        <v>40503</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>426</v>
@@ -16976,18 +16954,18 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>843</v>
+        <v>588</v>
       </c>
       <c r="D23" s="1">
-        <v>40508</v>
+        <v>40504</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>426</v>
@@ -16996,18 +16974,18 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D24" s="1">
-        <v>40509</v>
+        <v>40505</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>426</v>
@@ -17016,18 +16994,18 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>845</v>
+        <v>589</v>
       </c>
       <c r="D25" s="1">
-        <v>40510</v>
+        <v>40506</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>426</v>
@@ -17036,18 +17014,18 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D26" s="1">
-        <v>40511</v>
+        <v>40507</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>426</v>
@@ -17056,18 +17034,18 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D27" s="1">
-        <v>40512</v>
+        <v>40508</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>426</v>
@@ -17076,18 +17054,18 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D28" s="1">
-        <v>40513</v>
+        <v>40509</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>426</v>
@@ -17096,18 +17074,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D29" s="1">
-        <v>40514</v>
+        <v>40510</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>426</v>
@@ -17116,18 +17094,18 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D30" s="1">
-        <v>40515</v>
+        <v>40511</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>426</v>
@@ -17136,18 +17114,18 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D31" s="1">
-        <v>40516</v>
+        <v>40512</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>426</v>
@@ -17156,18 +17134,18 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>587</v>
+        <v>861</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>590</v>
+        <v>847</v>
       </c>
       <c r="D32" s="1">
-        <v>40517</v>
+        <v>40513</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>426</v>
@@ -17176,18 +17154,18 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="D33" s="1">
-        <v>40518</v>
+        <v>40514</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>426</v>
@@ -17196,18 +17174,18 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>733</v>
+      <c r="B34" s="13" t="s">
+        <v>863</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>577</v>
+        <v>847</v>
       </c>
       <c r="D34" s="1">
-        <v>87503</v>
+        <v>40515</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>426</v>
@@ -17216,18 +17194,18 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>730</v>
+        <v>864</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>578</v>
+        <v>848</v>
       </c>
       <c r="D35" s="1">
-        <v>87504</v>
+        <v>40516</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>426</v>
@@ -17236,61 +17214,64 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>732</v>
+      <c r="B36" s="13" t="s">
+        <v>587</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="D36" s="1">
-        <v>87507</v>
+        <v>40517</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>731</v>
+        <v>865</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>580</v>
+        <v>840</v>
       </c>
       <c r="D37" s="1">
-        <v>87509</v>
+        <v>40518</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>591</v>
+      <c r="B38" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="D38" s="1">
-        <v>90511</v>
+        <v>87503</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -17298,32 +17279,33 @@
         <v>553</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>592</v>
+        <v>730</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D39" s="1">
-        <v>90512</v>
+        <v>87504</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>426</v>
       </c>
       <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>932</v>
+      <c r="B40" s="5" t="s">
+        <v>732</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>935</v>
+        <v>579</v>
       </c>
       <c r="D40" s="1">
-        <v>87521</v>
+        <v>87507</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>426</v>
@@ -17331,18 +17313,18 @@
       <c r="F40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>933</v>
+        <v>731</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>936</v>
+        <v>580</v>
       </c>
       <c r="D41" s="1">
-        <v>87522</v>
+        <v>87509</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>426</v>
@@ -17350,18 +17332,18 @@
       <c r="F41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D42" s="1">
-        <v>87523</v>
+        <v>87521</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>426</v>
@@ -17369,18 +17351,18 @@
       <c r="F42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>903</v>
+        <v>933</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>892</v>
+        <v>936</v>
       </c>
       <c r="D43" s="1">
-        <v>87531</v>
+        <v>87522</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>426</v>
@@ -17388,18 +17370,18 @@
       <c r="F43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>904</v>
+        <v>934</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>893</v>
+        <v>937</v>
       </c>
       <c r="D44" s="1">
-        <v>87532</v>
+        <v>87523</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>426</v>
@@ -17407,18 +17389,18 @@
       <c r="F44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D45" s="1">
-        <v>87533</v>
+        <v>87531</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>426</v>
@@ -17426,18 +17408,18 @@
       <c r="F45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D46" s="1">
-        <v>87534</v>
+        <v>87532</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>426</v>
@@ -17445,18 +17427,18 @@
       <c r="F46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D47" s="1">
-        <v>87535</v>
+        <v>87533</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>426</v>
@@ -17464,18 +17446,18 @@
       <c r="F47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D48" s="1">
-        <v>87536</v>
+        <v>87534</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>426</v>
@@ -17483,18 +17465,18 @@
       <c r="F48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D49" s="1">
-        <v>87537</v>
+        <v>87535</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>426</v>
@@ -17502,18 +17484,18 @@
       <c r="F49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D50" s="1">
-        <v>87538</v>
+        <v>87536</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>426</v>
@@ -17521,18 +17503,18 @@
       <c r="F50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D51" s="1">
-        <v>87539</v>
+        <v>87537</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>426</v>
@@ -17540,18 +17522,18 @@
       <c r="F51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D52" s="1">
-        <v>87540</v>
+        <v>87538</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>426</v>
@@ -17559,18 +17541,18 @@
       <c r="F52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D53" s="1">
-        <v>87541</v>
+        <v>87539</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>426</v>
@@ -17578,18 +17560,18 @@
       <c r="F53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="D54" s="1">
-        <v>87542</v>
+        <v>87540</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>426</v>
@@ -17597,18 +17579,18 @@
       <c r="F54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="D55" s="1">
-        <v>87543</v>
+        <v>87541</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>426</v>
@@ -17616,18 +17598,18 @@
       <c r="F55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="D56" s="1">
-        <v>87544</v>
+        <v>87542</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>426</v>
@@ -17635,18 +17617,18 @@
       <c r="F56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D57" s="1">
-        <v>87545</v>
+        <v>87543</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>426</v>
@@ -17654,18 +17636,18 @@
       <c r="F57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D58" s="1">
-        <v>87546</v>
+        <v>87544</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>426</v>
@@ -17673,18 +17655,18 @@
       <c r="F58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="D59" s="1">
-        <v>87547</v>
+        <v>87545</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>426</v>
@@ -17692,18 +17674,18 @@
       <c r="F59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="D60" s="1">
-        <v>87548</v>
+        <v>87546</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>426</v>
@@ -17711,18 +17693,18 @@
       <c r="F60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="D61" s="1">
-        <v>87549</v>
+        <v>87547</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>426</v>
@@ -17730,18 +17712,18 @@
       <c r="F61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D62" s="1">
-        <v>87550</v>
+        <v>87548</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>426</v>
@@ -17749,18 +17731,18 @@
       <c r="F62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D63" s="1">
-        <v>87551</v>
+        <v>87549</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>426</v>
@@ -17768,18 +17750,18 @@
       <c r="F63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>964</v>
+        <v>926</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="D64" s="1">
-        <v>87560</v>
+        <v>87550</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>426</v>
@@ -17787,18 +17769,18 @@
       <c r="F64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>965</v>
+        <v>927</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>968</v>
+        <v>931</v>
       </c>
       <c r="D65" s="1">
-        <v>87561</v>
+        <v>87551</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>426</v>
@@ -17806,18 +17788,18 @@
       <c r="F65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>969</v>
+        <v>941</v>
       </c>
       <c r="D66" s="1">
-        <v>87562</v>
+        <v>87560</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>426</v>
@@ -17825,18 +17807,18 @@
       <c r="F66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D67" s="1">
-        <v>87563</v>
+        <v>87561</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>426</v>
@@ -17844,18 +17826,18 @@
       <c r="F67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>941</v>
+        <v>969</v>
       </c>
       <c r="D68" s="1">
-        <v>87571</v>
+        <v>87562</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>426</v>
@@ -17863,18 +17845,18 @@
       <c r="F68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="D69" s="1">
-        <v>87572</v>
+        <v>87563</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>426</v>
@@ -17882,18 +17864,18 @@
       <c r="F69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D70" s="1">
-        <v>87573</v>
+        <v>87571</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>426</v>
@@ -17901,18 +17883,18 @@
       <c r="F70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="D71" s="1">
-        <v>87581</v>
+        <v>87572</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>426</v>
@@ -17920,18 +17902,18 @@
       <c r="F71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="D72" s="1">
-        <v>87582</v>
+        <v>87573</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>426</v>
@@ -17939,18 +17921,18 @@
       <c r="F72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D73" s="1">
-        <v>87583</v>
+        <v>87581</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>426</v>
@@ -17958,18 +17940,18 @@
       <c r="F73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D74" s="1">
-        <v>87584</v>
+        <v>87582</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>426</v>
@@ -17977,18 +17959,18 @@
       <c r="F74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D75" s="1">
-        <v>87585</v>
+        <v>87583</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>426</v>
@@ -17996,18 +17978,18 @@
       <c r="F75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D76" s="1">
-        <v>87586</v>
+        <v>87584</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>426</v>
@@ -18015,18 +17997,18 @@
       <c r="F76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D77" s="1">
-        <v>87587</v>
+        <v>87585</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>426</v>
@@ -18034,18 +18016,18 @@
       <c r="F77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D78" s="1">
-        <v>87588</v>
+        <v>87586</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>426</v>
@@ -18053,18 +18035,18 @@
       <c r="F78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D79" s="1">
-        <v>87589</v>
+        <v>87587</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>426</v>
@@ -18072,18 +18054,18 @@
       <c r="F79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D80" s="1">
-        <v>87590</v>
+        <v>87588</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>426</v>
@@ -18091,18 +18073,18 @@
       <c r="F80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="D81" s="1">
-        <v>90501</v>
+        <v>87589</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>426</v>
@@ -18110,18 +18092,18 @@
       <c r="F81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="D82" s="1">
-        <v>90502</v>
+        <v>87590</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>426</v>
@@ -18129,18 +18111,18 @@
       <c r="F82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D83" s="1">
-        <v>90503</v>
+        <v>90501</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>426</v>
@@ -18148,18 +18130,18 @@
       <c r="F83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D84" s="1">
-        <v>90504</v>
+        <v>90502</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>426</v>
@@ -18167,18 +18149,18 @@
       <c r="F84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D85" s="1">
-        <v>90505</v>
+        <v>90503</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>426</v>
@@ -18186,18 +18168,18 @@
       <c r="F85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D86" s="1">
-        <v>90506</v>
+        <v>90504</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>426</v>
@@ -18205,18 +18187,18 @@
       <c r="F86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D87" s="1">
-        <v>90507</v>
+        <v>90505</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>426</v>
@@ -18224,18 +18206,18 @@
       <c r="F87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D88" s="1">
-        <v>90508</v>
+        <v>90506</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>426</v>
@@ -18243,18 +18225,18 @@
       <c r="F88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D89" s="1">
-        <v>90509</v>
+        <v>90507</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>426</v>
@@ -18262,18 +18244,18 @@
       <c r="F89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D90" s="1">
-        <v>90510</v>
+        <v>90508</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>426</v>
@@ -18281,18 +18263,18 @@
       <c r="F90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D91" s="1">
-        <v>90513</v>
+        <v>90509</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>426</v>
@@ -18300,18 +18282,18 @@
       <c r="F91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="D92" s="1">
-        <v>90517</v>
+        <v>90510</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>426</v>
@@ -18319,18 +18301,18 @@
       <c r="F92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>999</v>
+        <v>591</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1004</v>
+        <v>593</v>
       </c>
       <c r="D93" s="1">
-        <v>90518</v>
+        <v>90511</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>426</v>
@@ -18338,18 +18320,18 @@
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1000</v>
+        <v>592</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1005</v>
+        <v>594</v>
       </c>
       <c r="D94" s="1">
-        <v>90519</v>
+        <v>90512</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>426</v>
@@ -18357,18 +18339,18 @@
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="D95" s="1">
-        <v>90520</v>
+        <v>90513</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>426</v>
@@ -18376,37 +18358,35 @@
       <c r="F95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D96" s="1">
-        <v>90521</v>
-      </c>
-      <c r="E96" s="1" t="s">
+      <c r="B96" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D96" s="3">
+        <v>90514</v>
+      </c>
+      <c r="E96" t="s">
         <v>426</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>971</v>
+        <v>998</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>973</v>
+        <v>1003</v>
       </c>
       <c r="D97" s="1">
-        <v>90531</v>
+        <v>90517</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>426</v>
@@ -18414,18 +18394,18 @@
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>972</v>
+        <v>999</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>974</v>
+        <v>1004</v>
       </c>
       <c r="D98" s="1">
-        <v>90532</v>
+        <v>90518</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>426</v>
@@ -18433,18 +18413,18 @@
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>866</v>
+        <v>1000</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>879</v>
+        <v>1005</v>
       </c>
       <c r="D99" s="1">
-        <v>94501</v>
+        <v>90519</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>426</v>
@@ -18452,18 +18432,18 @@
       <c r="F99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>867</v>
+        <v>1001</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>880</v>
+        <v>1006</v>
       </c>
       <c r="D100" s="1">
-        <v>94502</v>
+        <v>90520</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>426</v>
@@ -18471,18 +18451,18 @@
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>868</v>
+        <v>1002</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>881</v>
+        <v>1007</v>
       </c>
       <c r="D101" s="1">
-        <v>94503</v>
+        <v>90521</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>426</v>
@@ -18490,18 +18470,18 @@
       <c r="F101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>869</v>
+        <v>971</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>882</v>
+        <v>973</v>
       </c>
       <c r="D102" s="1">
-        <v>94504</v>
+        <v>90531</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>426</v>
@@ -18509,18 +18489,18 @@
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>870</v>
+        <v>972</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>883</v>
+        <v>974</v>
       </c>
       <c r="D103" s="1">
-        <v>94505</v>
+        <v>90532</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>426</v>
@@ -18528,18 +18508,18 @@
       <c r="F103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="D104" s="1">
-        <v>94506</v>
+        <v>94501</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>426</v>
@@ -18547,18 +18527,18 @@
       <c r="F104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="D105" s="1">
-        <v>94507</v>
+        <v>94502</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>426</v>
@@ -18566,18 +18546,18 @@
       <c r="F105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D106" s="1">
-        <v>94508</v>
+        <v>94503</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>426</v>
@@ -18585,18 +18565,18 @@
       <c r="F106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D107" s="1">
-        <v>94509</v>
+        <v>94504</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>426</v>
@@ -18604,18 +18584,18 @@
       <c r="F107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D108" s="1">
-        <v>94510</v>
+        <v>94505</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>426</v>
@@ -18623,18 +18603,18 @@
       <c r="F108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D109" s="1">
-        <v>94511</v>
+        <v>94506</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>426</v>
@@ -18642,18 +18622,18 @@
       <c r="F109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="D110" s="1">
-        <v>94512</v>
+        <v>94507</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>426</v>
@@ -18661,18 +18641,18 @@
       <c r="F110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="D111" s="1">
-        <v>94513</v>
+        <v>94508</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>426</v>
@@ -18680,18 +18660,18 @@
       <c r="F111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>581</v>
+      <c r="B112" s="13" t="s">
+        <v>874</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>582</v>
+        <v>887</v>
       </c>
       <c r="D112" s="1">
-        <v>15300</v>
+        <v>94509</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>426</v>
@@ -18699,18 +18679,18 @@
       <c r="F112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>583</v>
+      <c r="B113" s="13" t="s">
+        <v>875</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>584</v>
+        <v>888</v>
       </c>
       <c r="D113" s="1">
-        <v>15314</v>
+        <v>94510</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>426</v>
@@ -18718,18 +18698,18 @@
       <c r="F113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>585</v>
+        <v>876</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>586</v>
+        <v>889</v>
       </c>
       <c r="D114" s="1">
-        <v>15331</v>
+        <v>94511</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>426</v>
@@ -18737,54 +18717,75 @@
       <c r="F114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B115" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D115">
-        <v>15301</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="B115" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D115" s="1">
+        <v>94512</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="1"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="D116" s="3">
-        <v>90514</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="B116" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D116" s="1">
+        <v>94513</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D117">
+        <v>116500</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>426</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H116" xr:uid="{00000000-0001-0000-1200-000000000000}">
-    <filterColumn colId="3">
-      <colorFilter dxfId="8"/>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H116">
+      <sortCondition ref="D1:D116"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B116:C116">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>ISERROR(VLOOKUP($B116,$B:$B,1,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -19071,11 +19072,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F943"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261:B265"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19104,7 +19104,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>553</v>
       </c>
@@ -19122,7 +19122,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>553</v>
       </c>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>553</v>
       </c>
@@ -19158,7 +19158,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>553</v>
       </c>
@@ -19176,7 +19176,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>553</v>
       </c>
@@ -19194,7 +19194,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>553</v>
       </c>
@@ -19212,7 +19212,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>553</v>
       </c>
@@ -19230,7 +19230,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>553</v>
       </c>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>553</v>
       </c>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>553</v>
       </c>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>553</v>
       </c>
@@ -19302,7 +19302,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>553</v>
       </c>
@@ -19320,7 +19320,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>553</v>
       </c>
@@ -19338,7 +19338,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>553</v>
       </c>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>553</v>
       </c>
@@ -19374,7 +19374,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>553</v>
       </c>
@@ -19392,7 +19392,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>553</v>
       </c>
@@ -19410,7 +19410,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>553</v>
       </c>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>553</v>
       </c>
@@ -19446,7 +19446,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>553</v>
       </c>
@@ -19464,7 +19464,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>553</v>
       </c>
@@ -19482,7 +19482,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>553</v>
       </c>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>553</v>
       </c>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>553</v>
       </c>
@@ -19536,7 +19536,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>553</v>
       </c>
@@ -19554,7 +19554,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>553</v>
       </c>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>553</v>
       </c>
@@ -19590,7 +19590,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>553</v>
       </c>
@@ -19608,7 +19608,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>553</v>
       </c>
@@ -19626,7 +19626,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>553</v>
       </c>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>553</v>
       </c>
@@ -19662,7 +19662,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>553</v>
       </c>
@@ -19680,7 +19680,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>553</v>
       </c>
@@ -19698,7 +19698,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>553</v>
       </c>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>553</v>
       </c>
@@ -19734,7 +19734,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>553</v>
       </c>
@@ -19752,7 +19752,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>553</v>
       </c>
@@ -19770,7 +19770,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>553</v>
       </c>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>553</v>
       </c>
@@ -19806,7 +19806,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>553</v>
       </c>
@@ -19824,7 +19824,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>553</v>
       </c>
@@ -19842,7 +19842,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>553</v>
       </c>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>553</v>
       </c>
@@ -19878,7 +19878,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>553</v>
       </c>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>553</v>
       </c>
@@ -19914,7 +19914,7 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>553</v>
       </c>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>553</v>
       </c>
@@ -19950,7 +19950,7 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>553</v>
       </c>
@@ -19968,7 +19968,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>553</v>
       </c>
@@ -19986,7 +19986,7 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>553</v>
       </c>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>553</v>
       </c>
@@ -20022,7 +20022,7 @@
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>553</v>
       </c>
@@ -20040,7 +20040,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>553</v>
       </c>
@@ -20058,7 +20058,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>553</v>
       </c>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>553</v>
       </c>
@@ -20094,7 +20094,7 @@
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>553</v>
       </c>
@@ -20112,7 +20112,7 @@
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>553</v>
       </c>
@@ -20130,7 +20130,7 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>553</v>
       </c>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>553</v>
       </c>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>553</v>
       </c>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>553</v>
       </c>
@@ -20202,7 +20202,7 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>553</v>
       </c>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>553</v>
       </c>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>553</v>
       </c>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>553</v>
       </c>
@@ -20274,7 +20274,7 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>553</v>
       </c>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>553</v>
       </c>
@@ -20310,7 +20310,7 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>553</v>
       </c>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>553</v>
       </c>
@@ -20346,7 +20346,7 @@
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>553</v>
       </c>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>553</v>
       </c>
@@ -20382,7 +20382,7 @@
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>553</v>
       </c>
@@ -20400,7 +20400,7 @@
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>553</v>
       </c>
@@ -20418,7 +20418,7 @@
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>553</v>
       </c>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>553</v>
       </c>
@@ -20454,7 +20454,7 @@
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>553</v>
       </c>
@@ -20472,7 +20472,7 @@
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>553</v>
       </c>
@@ -20490,7 +20490,7 @@
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>553</v>
       </c>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>553</v>
       </c>
@@ -20526,7 +20526,7 @@
       </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>553</v>
       </c>
@@ -20544,7 +20544,7 @@
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>553</v>
       </c>
@@ -20562,7 +20562,7 @@
       </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>553</v>
       </c>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>553</v>
       </c>
@@ -20598,7 +20598,7 @@
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>553</v>
       </c>
@@ -20616,7 +20616,7 @@
       </c>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>553</v>
       </c>
@@ -20634,7 +20634,7 @@
       </c>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>553</v>
       </c>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>553</v>
       </c>
@@ -20670,7 +20670,7 @@
       </c>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>553</v>
       </c>
@@ -20688,7 +20688,7 @@
       </c>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>553</v>
       </c>
@@ -20706,7 +20706,7 @@
       </c>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>553</v>
       </c>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>553</v>
       </c>
@@ -20742,7 +20742,7 @@
       </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>553</v>
       </c>
@@ -20760,7 +20760,7 @@
       </c>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>553</v>
       </c>
@@ -20778,7 +20778,7 @@
       </c>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>553</v>
       </c>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>553</v>
       </c>
@@ -20814,7 +20814,7 @@
       </c>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>553</v>
       </c>
@@ -20832,7 +20832,7 @@
       </c>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>553</v>
       </c>
@@ -20850,7 +20850,7 @@
       </c>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>553</v>
       </c>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>553</v>
       </c>
@@ -20886,7 +20886,7 @@
       </c>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>553</v>
       </c>
@@ -20904,7 +20904,7 @@
       </c>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>553</v>
       </c>
@@ -20922,7 +20922,7 @@
       </c>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>553</v>
       </c>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>553</v>
       </c>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>553</v>
       </c>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>553</v>
       </c>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>553</v>
       </c>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>553</v>
       </c>
@@ -21030,7 +21030,7 @@
       </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>553</v>
       </c>
@@ -21048,7 +21048,7 @@
       </c>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>553</v>
       </c>
@@ -21066,7 +21066,7 @@
       </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>553</v>
       </c>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>553</v>
       </c>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>553</v>
       </c>
@@ -21120,7 +21120,7 @@
       </c>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>553</v>
       </c>
@@ -21138,7 +21138,7 @@
       </c>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>553</v>
       </c>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>553</v>
       </c>
@@ -21174,7 +21174,7 @@
       </c>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>553</v>
       </c>
@@ -21192,7 +21192,7 @@
       </c>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>553</v>
       </c>
@@ -21210,7 +21210,7 @@
       </c>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>553</v>
       </c>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>553</v>
       </c>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>553</v>
       </c>
@@ -21264,7 +21264,7 @@
       </c>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>553</v>
       </c>
@@ -21282,7 +21282,7 @@
       </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>553</v>
       </c>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>553</v>
       </c>
@@ -21318,7 +21318,7 @@
       </c>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>553</v>
       </c>
@@ -21336,7 +21336,7 @@
       </c>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>553</v>
       </c>
@@ -21354,7 +21354,7 @@
       </c>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>553</v>
       </c>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>553</v>
       </c>
@@ -21390,7 +21390,7 @@
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>553</v>
       </c>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>553</v>
       </c>
@@ -21426,7 +21426,7 @@
       </c>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>553</v>
       </c>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>553</v>
       </c>
@@ -21462,7 +21462,7 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>553</v>
       </c>
@@ -21480,7 +21480,7 @@
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>553</v>
       </c>
@@ -21498,7 +21498,7 @@
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>553</v>
       </c>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>553</v>
       </c>
@@ -21534,7 +21534,7 @@
       </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>553</v>
       </c>
@@ -21552,7 +21552,7 @@
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>553</v>
       </c>
@@ -21570,7 +21570,7 @@
       </c>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>553</v>
       </c>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>553</v>
       </c>
@@ -21606,7 +21606,7 @@
       </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>553</v>
       </c>
@@ -21624,7 +21624,7 @@
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>553</v>
       </c>
@@ -21642,7 +21642,7 @@
       </c>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>553</v>
       </c>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>553</v>
       </c>
@@ -21678,7 +21678,7 @@
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>553</v>
       </c>
@@ -21696,7 +21696,7 @@
       </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>553</v>
       </c>
@@ -21714,7 +21714,7 @@
       </c>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>553</v>
       </c>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>553</v>
       </c>
@@ -21750,7 +21750,7 @@
       </c>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>553</v>
       </c>
@@ -21768,7 +21768,7 @@
       </c>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>553</v>
       </c>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>553</v>
       </c>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>553</v>
       </c>
@@ -21822,7 +21822,7 @@
       </c>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>553</v>
       </c>
@@ -21840,7 +21840,7 @@
       </c>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>553</v>
       </c>
@@ -21858,7 +21858,7 @@
       </c>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>553</v>
       </c>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>553</v>
       </c>
@@ -21894,7 +21894,7 @@
       </c>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>553</v>
       </c>
@@ -21912,7 +21912,7 @@
       </c>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>553</v>
       </c>
@@ -21930,7 +21930,7 @@
       </c>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>553</v>
       </c>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>553</v>
       </c>
@@ -21966,7 +21966,7 @@
       </c>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>553</v>
       </c>
@@ -21984,7 +21984,7 @@
       </c>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>553</v>
       </c>
@@ -22002,7 +22002,7 @@
       </c>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>553</v>
       </c>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>553</v>
       </c>
@@ -22038,7 +22038,7 @@
       </c>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>553</v>
       </c>
@@ -22056,7 +22056,7 @@
       </c>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>553</v>
       </c>
@@ -22074,7 +22074,7 @@
       </c>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>553</v>
       </c>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>553</v>
       </c>
@@ -22110,7 +22110,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>553</v>
       </c>
@@ -22128,7 +22128,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>553</v>
       </c>
@@ -22146,7 +22146,7 @@
       </c>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>553</v>
       </c>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>553</v>
       </c>
@@ -22182,7 +22182,7 @@
       </c>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>553</v>
       </c>
@@ -22200,7 +22200,7 @@
       </c>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>553</v>
       </c>
@@ -22218,7 +22218,7 @@
       </c>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>553</v>
       </c>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>553</v>
       </c>
@@ -22254,7 +22254,7 @@
       </c>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>553</v>
       </c>
@@ -22272,7 +22272,7 @@
       </c>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>553</v>
       </c>
@@ -22290,7 +22290,7 @@
       </c>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>553</v>
       </c>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>553</v>
       </c>
@@ -22326,7 +22326,7 @@
       </c>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>553</v>
       </c>
@@ -22344,7 +22344,7 @@
       </c>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>553</v>
       </c>
@@ -22362,7 +22362,7 @@
       </c>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>553</v>
       </c>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>553</v>
       </c>
@@ -22398,7 +22398,7 @@
       </c>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>553</v>
       </c>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>553</v>
       </c>
@@ -22434,7 +22434,7 @@
       </c>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>553</v>
       </c>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>553</v>
       </c>
@@ -22470,7 +22470,7 @@
       </c>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>553</v>
       </c>
@@ -22488,7 +22488,7 @@
       </c>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>553</v>
       </c>
@@ -22506,7 +22506,7 @@
       </c>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>553</v>
       </c>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>553</v>
       </c>
@@ -22542,7 +22542,7 @@
       </c>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>553</v>
       </c>
@@ -22560,7 +22560,7 @@
       </c>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>553</v>
       </c>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>553</v>
       </c>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>553</v>
       </c>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>553</v>
       </c>
@@ -22632,7 +22632,7 @@
       </c>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>553</v>
       </c>
@@ -22650,7 +22650,7 @@
       </c>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>553</v>
       </c>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>553</v>
       </c>
@@ -22686,7 +22686,7 @@
       </c>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>553</v>
       </c>
@@ -22704,7 +22704,7 @@
       </c>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>553</v>
       </c>
@@ -22722,7 +22722,7 @@
       </c>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>553</v>
       </c>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>553</v>
       </c>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>553</v>
       </c>
@@ -22776,7 +22776,7 @@
       </c>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>553</v>
       </c>
@@ -22794,7 +22794,7 @@
       </c>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>553</v>
       </c>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>553</v>
       </c>
@@ -22830,7 +22830,7 @@
       </c>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>553</v>
       </c>
@@ -22848,7 +22848,7 @@
       </c>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>553</v>
       </c>
@@ -22866,7 +22866,7 @@
       </c>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>553</v>
       </c>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>553</v>
       </c>
@@ -22902,7 +22902,7 @@
       </c>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>553</v>
       </c>
@@ -22920,7 +22920,7 @@
       </c>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>553</v>
       </c>
@@ -22938,7 +22938,7 @@
       </c>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>553</v>
       </c>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>553</v>
       </c>
@@ -22974,7 +22974,7 @@
       </c>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>553</v>
       </c>
@@ -22992,7 +22992,7 @@
       </c>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>553</v>
       </c>
@@ -23010,7 +23010,7 @@
       </c>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>553</v>
       </c>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>553</v>
       </c>
@@ -23046,7 +23046,7 @@
       </c>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>553</v>
       </c>
@@ -23064,7 +23064,7 @@
       </c>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>553</v>
       </c>
@@ -23082,7 +23082,7 @@
       </c>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>553</v>
       </c>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="F223" s="1"/>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>553</v>
       </c>
@@ -23118,7 +23118,7 @@
       </c>
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>553</v>
       </c>
@@ -23136,7 +23136,7 @@
       </c>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>553</v>
       </c>
@@ -23154,7 +23154,7 @@
       </c>
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>553</v>
       </c>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>553</v>
       </c>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="F228" s="1"/>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>553</v>
       </c>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>553</v>
       </c>
@@ -23226,7 +23226,7 @@
       </c>
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>553</v>
       </c>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>553</v>
       </c>
@@ -23262,7 +23262,7 @@
       </c>
       <c r="F232" s="1"/>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>553</v>
       </c>
@@ -23280,7 +23280,7 @@
       </c>
       <c r="F233" s="1"/>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>553</v>
       </c>
@@ -23298,7 +23298,7 @@
       </c>
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>553</v>
       </c>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>553</v>
       </c>
@@ -23334,7 +23334,7 @@
       </c>
       <c r="F236" s="1"/>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>553</v>
       </c>
@@ -23352,7 +23352,7 @@
       </c>
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>553</v>
       </c>
@@ -23370,7 +23370,7 @@
       </c>
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>553</v>
       </c>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="F239" s="1"/>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>553</v>
       </c>
@@ -23406,7 +23406,7 @@
       </c>
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>553</v>
       </c>
@@ -23424,7 +23424,7 @@
       </c>
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>553</v>
       </c>
@@ -23442,7 +23442,7 @@
       </c>
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>553</v>
       </c>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>553</v>
       </c>
@@ -23478,7 +23478,7 @@
       </c>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>553</v>
       </c>
@@ -23496,7 +23496,7 @@
       </c>
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>553</v>
       </c>
@@ -23514,7 +23514,7 @@
       </c>
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>553</v>
       </c>
@@ -23532,7 +23532,7 @@
       </c>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>553</v>
       </c>
@@ -23550,7 +23550,7 @@
       </c>
       <c r="F248" s="1"/>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>553</v>
       </c>
@@ -23568,7 +23568,7 @@
       </c>
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>553</v>
       </c>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>553</v>
       </c>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="F251" s="1"/>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>553</v>
       </c>
@@ -23622,7 +23622,7 @@
       </c>
       <c r="F252" s="1"/>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>553</v>
       </c>
@@ -23640,7 +23640,7 @@
       </c>
       <c r="F253" s="1"/>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>553</v>
       </c>
@@ -23658,7 +23658,7 @@
       </c>
       <c r="F254" s="1"/>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>553</v>
       </c>
@@ -23856,7 +23856,7 @@
       </c>
       <c r="F265" s="1"/>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>553</v>
       </c>
@@ -23874,7 +23874,7 @@
       </c>
       <c r="F266" s="1"/>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>553</v>
       </c>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="F267" s="1"/>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>553</v>
       </c>
@@ -23910,7 +23910,7 @@
       </c>
       <c r="F268" s="1"/>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>553</v>
       </c>
@@ -23928,7 +23928,7 @@
       </c>
       <c r="F269" s="1"/>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>553</v>
       </c>
@@ -23946,7 +23946,7 @@
       </c>
       <c r="F270" s="1"/>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>553</v>
       </c>
@@ -23964,7 +23964,7 @@
       </c>
       <c r="F271" s="1"/>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>553</v>
       </c>
@@ -23982,7 +23982,7 @@
       </c>
       <c r="F272" s="1"/>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>553</v>
       </c>
@@ -24000,7 +24000,7 @@
       </c>
       <c r="F273" s="1"/>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>553</v>
       </c>
@@ -24018,7 +24018,7 @@
       </c>
       <c r="F274" s="1"/>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>553</v>
       </c>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="F275" s="1"/>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>553</v>
       </c>
@@ -24054,7 +24054,7 @@
       </c>
       <c r="F276" s="1"/>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>553</v>
       </c>
@@ -24072,7 +24072,7 @@
       </c>
       <c r="F277" s="1"/>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>553</v>
       </c>
@@ -24090,7 +24090,7 @@
       </c>
       <c r="F278" s="1"/>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>553</v>
       </c>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="F279" s="1"/>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>553</v>
       </c>
@@ -24126,7 +24126,7 @@
       </c>
       <c r="F280" s="1"/>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>553</v>
       </c>
@@ -24144,7 +24144,7 @@
       </c>
       <c r="F281" s="1"/>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>553</v>
       </c>
@@ -24162,7 +24162,7 @@
       </c>
       <c r="F282" s="1"/>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>553</v>
       </c>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="F283" s="1"/>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>553</v>
       </c>
@@ -24198,7 +24198,7 @@
       </c>
       <c r="F284" s="1"/>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>553</v>
       </c>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="F285" s="1"/>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>553</v>
       </c>
@@ -24234,7 +24234,7 @@
       </c>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>553</v>
       </c>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="F287" s="1"/>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>553</v>
       </c>
@@ -24270,7 +24270,7 @@
       </c>
       <c r="F288" s="1"/>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>553</v>
       </c>
@@ -24288,7 +24288,7 @@
       </c>
       <c r="F289" s="1"/>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>553</v>
       </c>
@@ -24306,7 +24306,7 @@
       </c>
       <c r="F290" s="1"/>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>553</v>
       </c>
@@ -24324,7 +24324,7 @@
       </c>
       <c r="F291" s="1"/>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>553</v>
       </c>
@@ -24342,7 +24342,7 @@
       </c>
       <c r="F292" s="1"/>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>553</v>
       </c>
@@ -24360,7 +24360,7 @@
       </c>
       <c r="F293" s="1"/>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>553</v>
       </c>
@@ -24378,7 +24378,7 @@
       </c>
       <c r="F294" s="1"/>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>553</v>
       </c>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="F295" s="1"/>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>553</v>
       </c>
@@ -24414,7 +24414,7 @@
       </c>
       <c r="F296" s="1"/>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>553</v>
       </c>
@@ -24432,7 +24432,7 @@
       </c>
       <c r="F297" s="1"/>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>553</v>
       </c>
@@ -24450,7 +24450,7 @@
       </c>
       <c r="F298" s="1"/>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>553</v>
       </c>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="F299" s="1"/>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>553</v>
       </c>
@@ -24486,7 +24486,7 @@
       </c>
       <c r="F300" s="1"/>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>553</v>
       </c>
@@ -24504,7 +24504,7 @@
       </c>
       <c r="F301" s="1"/>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>553</v>
       </c>
@@ -24522,7 +24522,7 @@
       </c>
       <c r="F302" s="1"/>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>553</v>
       </c>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="F303" s="1"/>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>553</v>
       </c>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="F304" s="1"/>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>553</v>
       </c>
@@ -24576,7 +24576,7 @@
       </c>
       <c r="F305" s="1"/>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>553</v>
       </c>
@@ -24594,7 +24594,7 @@
       </c>
       <c r="F306" s="1"/>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>553</v>
       </c>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="F307" s="1"/>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>553</v>
       </c>
@@ -24630,7 +24630,7 @@
       </c>
       <c r="F308" s="1"/>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>553</v>
       </c>
@@ -24648,7 +24648,7 @@
       </c>
       <c r="F309" s="1"/>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>553</v>
       </c>
@@ -24666,7 +24666,7 @@
       </c>
       <c r="F310" s="1"/>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>553</v>
       </c>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="F311" s="1"/>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>553</v>
       </c>
@@ -24702,7 +24702,7 @@
       </c>
       <c r="F312" s="1"/>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>553</v>
       </c>
@@ -24720,7 +24720,7 @@
       </c>
       <c r="F313" s="1"/>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>553</v>
       </c>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="F314" s="1"/>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>553</v>
       </c>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="F315" s="1"/>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>553</v>
       </c>
@@ -24774,7 +24774,7 @@
       </c>
       <c r="F316" s="1"/>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>553</v>
       </c>
@@ -24792,7 +24792,7 @@
       </c>
       <c r="F317" s="1"/>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>553</v>
       </c>
@@ -24810,7 +24810,7 @@
       </c>
       <c r="F318" s="1"/>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>553</v>
       </c>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="F319" s="1"/>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>553</v>
       </c>
@@ -24846,7 +24846,7 @@
       </c>
       <c r="F320" s="1"/>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>553</v>
       </c>
@@ -24864,7 +24864,7 @@
       </c>
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>553</v>
       </c>
@@ -24882,7 +24882,7 @@
       </c>
       <c r="F322" s="1"/>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>553</v>
       </c>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="F323" s="1"/>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>553</v>
       </c>
@@ -24918,7 +24918,7 @@
       </c>
       <c r="F324" s="1"/>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>553</v>
       </c>
@@ -24936,7 +24936,7 @@
       </c>
       <c r="F325" s="1"/>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>553</v>
       </c>
@@ -24954,7 +24954,7 @@
       </c>
       <c r="F326" s="1"/>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>553</v>
       </c>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>553</v>
       </c>
@@ -24990,7 +24990,7 @@
       </c>
       <c r="F328" s="1"/>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>553</v>
       </c>
@@ -25008,7 +25008,7 @@
       </c>
       <c r="F329" s="1"/>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>553</v>
       </c>
@@ -25026,7 +25026,7 @@
       </c>
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>553</v>
       </c>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>553</v>
       </c>
@@ -25062,7 +25062,7 @@
       </c>
       <c r="F332" s="1"/>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>553</v>
       </c>
@@ -25080,7 +25080,7 @@
       </c>
       <c r="F333" s="1"/>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>553</v>
       </c>
@@ -25098,7 +25098,7 @@
       </c>
       <c r="F334" s="1"/>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>553</v>
       </c>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="F335" s="1"/>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>553</v>
       </c>
@@ -25134,7 +25134,7 @@
       </c>
       <c r="F336" s="1"/>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>553</v>
       </c>
@@ -25152,7 +25152,7 @@
       </c>
       <c r="F337" s="1"/>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>553</v>
       </c>
@@ -25170,7 +25170,7 @@
       </c>
       <c r="F338" s="1"/>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>553</v>
       </c>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="F339" s="1"/>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>553</v>
       </c>
@@ -25206,7 +25206,7 @@
       </c>
       <c r="F340" s="1"/>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>553</v>
       </c>
@@ -25224,7 +25224,7 @@
       </c>
       <c r="F341" s="1"/>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>553</v>
       </c>
@@ -25242,7 +25242,7 @@
       </c>
       <c r="F342" s="1"/>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>553</v>
       </c>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="F343" s="1"/>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>553</v>
       </c>
@@ -25278,7 +25278,7 @@
       </c>
       <c r="F344" s="1"/>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>553</v>
       </c>
@@ -25296,7 +25296,7 @@
       </c>
       <c r="F345" s="1"/>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>553</v>
       </c>
@@ -25314,7 +25314,7 @@
       </c>
       <c r="F346" s="1"/>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>553</v>
       </c>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="F347" s="1"/>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>553</v>
       </c>
@@ -25350,7 +25350,7 @@
       </c>
       <c r="F348" s="1"/>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>553</v>
       </c>
@@ -25368,7 +25368,7 @@
       </c>
       <c r="F349" s="1"/>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>553</v>
       </c>
@@ -25386,7 +25386,7 @@
       </c>
       <c r="F350" s="1"/>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>553</v>
       </c>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="F351" s="1"/>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>553</v>
       </c>
@@ -25422,7 +25422,7 @@
       </c>
       <c r="F352" s="1"/>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>553</v>
       </c>
@@ -25440,7 +25440,7 @@
       </c>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>553</v>
       </c>
@@ -25458,7 +25458,7 @@
       </c>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>553</v>
       </c>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>553</v>
       </c>
@@ -25494,7 +25494,7 @@
       </c>
       <c r="F356" s="1"/>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>553</v>
       </c>
@@ -25512,7 +25512,7 @@
       </c>
       <c r="F357" s="1"/>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>553</v>
       </c>
@@ -25530,7 +25530,7 @@
       </c>
       <c r="F358" s="1"/>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>553</v>
       </c>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="F359" s="1"/>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>553</v>
       </c>
@@ -25566,7 +25566,7 @@
       </c>
       <c r="F360" s="1"/>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>553</v>
       </c>
@@ -25584,7 +25584,7 @@
       </c>
       <c r="F361" s="1"/>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>553</v>
       </c>
@@ -25602,7 +25602,7 @@
       </c>
       <c r="F362" s="1"/>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>553</v>
       </c>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="F363" s="1"/>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>553</v>
       </c>
@@ -25638,7 +25638,7 @@
       </c>
       <c r="F364" s="1"/>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>553</v>
       </c>
@@ -25656,7 +25656,7 @@
       </c>
       <c r="F365" s="1"/>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>553</v>
       </c>
@@ -25674,7 +25674,7 @@
       </c>
       <c r="F366" s="1"/>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>553</v>
       </c>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="F367" s="1"/>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>553</v>
       </c>
@@ -25710,7 +25710,7 @@
       </c>
       <c r="F368" s="1"/>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>553</v>
       </c>
@@ -25728,7 +25728,7 @@
       </c>
       <c r="F369" s="1"/>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>553</v>
       </c>
@@ -25746,7 +25746,7 @@
       </c>
       <c r="F370" s="1"/>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>553</v>
       </c>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="F371" s="1"/>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>553</v>
       </c>
@@ -25782,7 +25782,7 @@
       </c>
       <c r="F372" s="1"/>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>553</v>
       </c>
@@ -25800,7 +25800,7 @@
       </c>
       <c r="F373" s="1"/>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>553</v>
       </c>
@@ -25818,7 +25818,7 @@
       </c>
       <c r="F374" s="1"/>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>553</v>
       </c>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="F375" s="1"/>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>553</v>
       </c>
@@ -25854,7 +25854,7 @@
       </c>
       <c r="F376" s="1"/>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>553</v>
       </c>
@@ -25872,7 +25872,7 @@
       </c>
       <c r="F377" s="1"/>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>553</v>
       </c>
@@ -25890,7 +25890,7 @@
       </c>
       <c r="F378" s="1"/>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>553</v>
       </c>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="F379" s="1"/>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>553</v>
       </c>
@@ -25926,7 +25926,7 @@
       </c>
       <c r="F380" s="1"/>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>553</v>
       </c>
@@ -25944,7 +25944,7 @@
       </c>
       <c r="F381" s="1"/>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>553</v>
       </c>
@@ -25962,7 +25962,7 @@
       </c>
       <c r="F382" s="1"/>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>553</v>
       </c>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="F383" s="1"/>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>553</v>
       </c>
@@ -25998,7 +25998,7 @@
       </c>
       <c r="F384" s="1"/>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>553</v>
       </c>
@@ -26016,7 +26016,7 @@
       </c>
       <c r="F385" s="1"/>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>553</v>
       </c>
@@ -26034,7 +26034,7 @@
       </c>
       <c r="F386" s="1"/>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>553</v>
       </c>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="F387" s="1"/>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>553</v>
       </c>
@@ -26070,7 +26070,7 @@
       </c>
       <c r="F388" s="1"/>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>553</v>
       </c>
@@ -26088,7 +26088,7 @@
       </c>
       <c r="F389" s="1"/>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>553</v>
       </c>
@@ -26106,7 +26106,7 @@
       </c>
       <c r="F390" s="1"/>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>553</v>
       </c>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="F391" s="1"/>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>553</v>
       </c>
@@ -26142,7 +26142,7 @@
       </c>
       <c r="F392" s="1"/>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>553</v>
       </c>
@@ -26160,7 +26160,7 @@
       </c>
       <c r="F393" s="1"/>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>553</v>
       </c>
@@ -26178,7 +26178,7 @@
       </c>
       <c r="F394" s="1"/>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>553</v>
       </c>
@@ -28570,11 +28570,7 @@
       <c r="E943" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F943" xr:uid="{00000000-0001-0000-1300-000000000000}">
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F943" xr:uid="{00000000-0001-0000-1300-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
